--- a/01.Dataset-Rofiqul/Ujicoba3-29052024/dataset/KonsolidasiDataHasil.xlsx
+++ b/01.Dataset-Rofiqul/Ujicoba3-29052024/dataset/KonsolidasiDataHasil.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\!!PYTHON2023\github-outlier-detection2024\01.Dataset-Rofiqul\Ujicoba3-29052024\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86CFA7FB-B157-4F71-B8A2-D16B95CB2F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531EEAE5-5CC7-44CA-9988-5D90F6135286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{F4C18339-2676-4789-8F79-B55434D3D03D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="3" xr2:uid="{F4C18339-2676-4789-8F79-B55434D3D03D}"/>
   </bookViews>
   <sheets>
-    <sheet name="0908_0_2_00_xgboost_evaluation_" sheetId="5" r:id="rId1"/>
-    <sheet name="KonsolidasiData" sheetId="1" r:id="rId2"/>
+    <sheet name="KonsolidasiData" sheetId="1" r:id="rId1"/>
+    <sheet name="0908_0_2_00_xgboost_evaluation_" sheetId="5" r:id="rId2"/>
     <sheet name="0908_0_1_00_xgboost_evaluation_" sheetId="4" r:id="rId3"/>
     <sheet name="0908_0_00_xgboost_evaluation_No" sheetId="2" r:id="rId4"/>
     <sheet name="0908_0_01_xgboost_evaluation_XG" sheetId="3" r:id="rId5"/>
@@ -23,7 +23,7 @@
     <definedName name="ExternalData_1" localSheetId="3" hidden="1">'0908_0_00_xgboost_evaluation_No'!$A$1:$F$6</definedName>
     <definedName name="ExternalData_1" localSheetId="4" hidden="1">'0908_0_01_xgboost_evaluation_XG'!$A$1:$E$6</definedName>
     <definedName name="ExternalData_1" localSheetId="2" hidden="1">'0908_0_1_00_xgboost_evaluation_'!$A$1:$J$10</definedName>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'0908_0_2_00_xgboost_evaluation_'!$A$1:$J$10</definedName>
+    <definedName name="ExternalData_1" localSheetId="1" hidden="1">'0908_0_2_00_xgboost_evaluation_'!$A$1:$J$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="168">
   <si>
     <t>SKEMA PENGUJIAN N2O SYAHRONI WAHYU</t>
   </si>
@@ -553,6 +553,9 @@
   </si>
   <si>
     <t>IDO</t>
+  </si>
+  <si>
+    <t>Best Parameter</t>
   </si>
 </sst>
 </file>
@@ -643,21 +646,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -840,16 +840,16 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{5AFD71DD-7CE7-4F67-93B3-5E12285D7506}" name="_0908_0_2_00_xgboost_evaluation_CV_RandomSearch_IDO_XGBCV" displayName="_0908_0_2_00_xgboost_evaluation_CV_RandomSearch_IDO_XGBCV" ref="A1:J10" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:J10" xr:uid="{5AFD71DD-7CE7-4F67-93B3-5E12285D7506}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{DCA578B3-5B4C-4407-B7F2-374D573F7306}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{EE9F30D1-4139-4F47-9F41-CC08AC2B4AF2}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{EE89823D-3966-4FCE-B465-B531E4308B54}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{1B9022EB-997E-4B54-8AF9-70D81F04580B}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{4239287C-CB9D-4A3B-B1C7-E7D1C08A6EB1}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{74505CA8-99CD-4429-92A5-49B9549A8A03}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{75A0C4EE-A8AA-4D2D-BA15-ABEF4EF9BD50}" uniqueName="7" name="Column7" queryTableFieldId="7" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{DC7B4CAB-D95F-478C-9960-7A5BF57A2B11}" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{63F2B345-8F25-4578-BE92-6356FA7D52A8}" uniqueName="9" name="Column9" queryTableFieldId="9" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{06401502-00F0-4E36-968D-B1BE9123DBB4}" uniqueName="10" name="Column10" queryTableFieldId="10" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{DCA578B3-5B4C-4407-B7F2-374D573F7306}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{EE9F30D1-4139-4F47-9F41-CC08AC2B4AF2}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{EE89823D-3966-4FCE-B465-B531E4308B54}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{1B9022EB-997E-4B54-8AF9-70D81F04580B}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{4239287C-CB9D-4A3B-B1C7-E7D1C08A6EB1}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{74505CA8-99CD-4429-92A5-49B9549A8A03}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="25"/>
+    <tableColumn id="7" xr3:uid="{75A0C4EE-A8AA-4D2D-BA15-ABEF4EF9BD50}" uniqueName="7" name="Column7" queryTableFieldId="7" dataDxfId="24"/>
+    <tableColumn id="8" xr3:uid="{DC7B4CAB-D95F-478C-9960-7A5BF57A2B11}" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="23"/>
+    <tableColumn id="9" xr3:uid="{63F2B345-8F25-4578-BE92-6356FA7D52A8}" uniqueName="9" name="Column9" queryTableFieldId="9" dataDxfId="22"/>
+    <tableColumn id="10" xr3:uid="{06401502-00F0-4E36-968D-B1BE9123DBB4}" uniqueName="10" name="Column10" queryTableFieldId="10" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -859,16 +859,16 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2E0D1A8F-5A7E-4D7C-8018-F8B758EFBD5D}" name="_0908_0_1_00_xgboost_evaluation_CV_GridSearch_IDO_XGBCV" displayName="_0908_0_1_00_xgboost_evaluation_CV_GridSearch_IDO_XGBCV" ref="A1:J10" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:J10" xr:uid="{2E0D1A8F-5A7E-4D7C-8018-F8B758EFBD5D}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{534D0A77-70CD-4DFC-8921-A04DDE79574C}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{0AC8D511-6B17-4604-8801-D3AF271A2028}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{F95551F6-9600-47C5-A5D8-E4C24CEC05D1}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{02A8E6F9-1D81-47B9-88D8-5262E1CBB4FF}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{9BB0BD88-FF73-4AD5-9F12-61E2309B85E7}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{A98DB752-E2D8-42D1-80A7-6AA9B426CBA8}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{4E872330-6A4C-442F-BCD1-F5D810725548}" uniqueName="7" name="Column7" queryTableFieldId="7" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{5647633A-642F-4BDC-B8E2-784859C63982}" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{F41A6BAB-D81D-45E0-93CA-C1D2D67F993A}" uniqueName="9" name="Column9" queryTableFieldId="9" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{2B8133F3-4B3F-414F-905B-DC8BB29FCAAF}" uniqueName="10" name="Column10" queryTableFieldId="10" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{534D0A77-70CD-4DFC-8921-A04DDE79574C}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{0AC8D511-6B17-4604-8801-D3AF271A2028}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{F95551F6-9600-47C5-A5D8-E4C24CEC05D1}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{02A8E6F9-1D81-47B9-88D8-5262E1CBB4FF}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{9BB0BD88-FF73-4AD5-9F12-61E2309B85E7}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{A98DB752-E2D8-42D1-80A7-6AA9B426CBA8}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{4E872330-6A4C-442F-BCD1-F5D810725548}" uniqueName="7" name="Column7" queryTableFieldId="7" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{5647633A-642F-4BDC-B8E2-784859C63982}" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{F41A6BAB-D81D-45E0-93CA-C1D2D67F993A}" uniqueName="9" name="Column9" queryTableFieldId="9" dataDxfId="12"/>
+    <tableColumn id="10" xr3:uid="{2B8133F3-4B3F-414F-905B-DC8BB29FCAAF}" uniqueName="10" name="Column10" queryTableFieldId="10" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -878,12 +878,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E817D4C2-FD23-461D-9A90-144764250446}" name="_0908_0_00_xgboost_evaluation_NoCV_NoTuning_IDO" displayName="_0908_0_00_xgboost_evaluation_NoCV_NoTuning_IDO" ref="A1:F6" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:F6" xr:uid="{E817D4C2-FD23-461D-9A90-144764250446}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{7B9EC88E-9D68-45F3-98BC-90646F66EDA7}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{A8345D81-26B7-495D-920A-A811126FFDF1}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{118186E3-A3B6-4A82-98F1-48BAA5531A84}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{1C459BCD-E5C9-4E7D-8518-D1DCFF53D87D}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{19607E35-B5B7-49BC-B408-F6E07C53E585}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="26"/>
-    <tableColumn id="6" xr3:uid="{35EC3CE2-90F4-47DF-9E67-7C9DE09300AB}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{7B9EC88E-9D68-45F3-98BC-90646F66EDA7}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{A8345D81-26B7-495D-920A-A811126FFDF1}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{118186E3-A3B6-4A82-98F1-48BAA5531A84}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{1C459BCD-E5C9-4E7D-8518-D1DCFF53D87D}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{19607E35-B5B7-49BC-B408-F6E07C53E585}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{35EC3CE2-90F4-47DF-9E67-7C9DE09300AB}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -893,11 +893,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FEF35BB1-66FD-47BA-8143-E9E4480ED189}" name="_0908_0_01_xgboost_evaluation_XGBCV_NoTuning_IDO" displayName="_0908_0_01_xgboost_evaluation_XGBCV_NoTuning_IDO" ref="A1:E6" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:E6" xr:uid="{FEF35BB1-66FD-47BA-8143-E9E4480ED189}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{EA2CB079-6DA5-4307-BCE6-AAF80AE2FEE3}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{C8D82C15-C4A9-4B49-A94E-DB6A7BFB1D8D}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{761DDB47-019F-49A2-AB66-402B553641EB}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{3A2D97E3-D6A3-4B0F-A9C4-5DE9EAABF32D}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{EE149BEC-C990-478E-9086-74C7544EEB02}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{EA2CB079-6DA5-4307-BCE6-AAF80AE2FEE3}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{C8D82C15-C4A9-4B49-A94E-DB6A7BFB1D8D}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{761DDB47-019F-49A2-AB66-402B553641EB}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{3A2D97E3-D6A3-4B0F-A9C4-5DE9EAABF32D}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{EE149BEC-C990-478E-9086-74C7544EEB02}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1199,356 +1199,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B1B882C-B741-4DBB-9F5C-5538E5B7B021}">
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412E7608-4C2F-49D3-BA0A-2C41010E464F}">
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="18.77734375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412E7608-4C2F-49D3-BA0A-2C41010E464F}">
-  <dimension ref="A1:L34"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD25"/>
+    <sheetView topLeftCell="F13" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1593,6 +1248,21 @@
       <c r="G4" t="s">
         <v>8</v>
       </c>
+      <c r="H4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -1610,23 +1280,29 @@
       <c r="E5" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>10</v>
+      <c r="F5">
+        <v>80</v>
+      </c>
+      <c r="G5" s="1">
+        <v>20</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -1640,25 +1316,28 @@
         <v>5</v>
       </c>
       <c r="F6">
-        <v>80</v>
-      </c>
-      <c r="G6" s="2">
-        <v>20</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="4">
         <v>25</v>
       </c>
-      <c r="K6" s="8" t="s">
-        <v>26</v>
+      <c r="H6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3</v>
+      </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -1672,25 +1351,28 @@
         <v>5</v>
       </c>
       <c r="F7">
-        <v>75</v>
-      </c>
-      <c r="G7" s="5">
-        <v>25</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="1">
         <v>30</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>31</v>
+      <c r="H7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>4</v>
+      </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
@@ -1704,25 +1386,28 @@
         <v>5</v>
       </c>
       <c r="F8">
-        <v>70</v>
-      </c>
-      <c r="G8" s="2">
-        <v>30</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="4">
         <v>35</v>
       </c>
-      <c r="K8" s="4" t="s">
-        <v>36</v>
+      <c r="H8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>5</v>
+      </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
@@ -1730,38 +1415,69 @@
         <v>166</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="E9" t="s">
         <v>5</v>
       </c>
       <c r="F9">
-        <v>65</v>
-      </c>
-      <c r="G9" s="5">
-        <v>35</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>40</v>
+        <v>80</v>
+      </c>
+      <c r="G9" s="1">
+        <v>20</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G10" s="5"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="7"/>
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>75</v>
+      </c>
+      <c r="G10" s="4">
+        <v>25</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>7</v>
+      </c>
       <c r="B11" t="s">
         <v>4</v>
       </c>
@@ -1775,25 +1491,28 @@
         <v>5</v>
       </c>
       <c r="F11">
-        <v>80</v>
-      </c>
-      <c r="G11" s="2">
-        <v>20</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>45</v>
+        <v>70</v>
+      </c>
+      <c r="G11" s="1">
+        <v>30</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>8</v>
+      </c>
       <c r="B12" t="s">
         <v>4</v>
       </c>
@@ -1807,25 +1526,28 @@
         <v>5</v>
       </c>
       <c r="F12">
-        <v>75</v>
-      </c>
-      <c r="G12" s="5">
-        <v>25</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>49</v>
+        <v>65</v>
+      </c>
+      <c r="G12" s="4">
+        <v>35</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>9</v>
+      </c>
       <c r="B13" t="s">
         <v>4</v>
       </c>
@@ -1833,31 +1555,37 @@
         <v>166</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
+        <v>117</v>
       </c>
       <c r="F13">
-        <v>70</v>
-      </c>
-      <c r="G13" s="2">
-        <v>30</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>53</v>
+        <v>80</v>
+      </c>
+      <c r="G13" s="1">
+        <v>20</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>10</v>
+      </c>
       <c r="B14" t="s">
         <v>4</v>
       </c>
@@ -1865,54 +1593,113 @@
         <v>166</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="E14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F14">
+        <v>75</v>
+      </c>
+      <c r="G14" s="4">
+        <v>25</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>166</v>
+      </c>
+      <c r="D15" t="s">
         <v>5</v>
       </c>
-      <c r="F14">
-        <v>65</v>
-      </c>
-      <c r="G14" s="5">
-        <v>35</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>57</v>
+      <c r="E15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F15">
+        <v>70</v>
+      </c>
+      <c r="G15" s="1">
+        <v>30</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
       <c r="C16" t="s">
         <v>166</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>117</v>
+      </c>
+      <c r="F16">
+        <v>65</v>
+      </c>
+      <c r="G16" s="4">
+        <v>35</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>13</v>
+      </c>
       <c r="B17" t="s">
         <v>4</v>
       </c>
@@ -1920,7 +1707,7 @@
         <v>166</v>
       </c>
       <c r="D17" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="E17" t="s">
         <v>117</v>
@@ -1928,26 +1715,29 @@
       <c r="F17">
         <v>80</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="9">
         <v>20</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>72</v>
+      <c r="H17" s="10" t="s">
+        <v>101</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="K17" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="L17" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L17" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>14</v>
+      </c>
       <c r="B18" t="s">
         <v>4</v>
       </c>
@@ -1955,7 +1745,7 @@
         <v>166</v>
       </c>
       <c r="D18" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="E18" t="s">
         <v>117</v>
@@ -1963,26 +1753,29 @@
       <c r="F18">
         <v>75</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="4">
         <v>25</v>
       </c>
-      <c r="H18" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L18" s="6" t="s">
+      <c r="H18" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="L18" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>15</v>
+      </c>
       <c r="B19" t="s">
         <v>4</v>
       </c>
@@ -1990,7 +1783,7 @@
         <v>166</v>
       </c>
       <c r="D19" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="E19" t="s">
         <v>117</v>
@@ -1998,26 +1791,29 @@
       <c r="F19">
         <v>70</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="1">
         <v>30</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="L19" s="3" t="s">
+      <c r="H19" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="L19" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>16</v>
+      </c>
       <c r="B20" t="s">
         <v>4</v>
       </c>
@@ -2025,7 +1821,7 @@
         <v>166</v>
       </c>
       <c r="D20" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="E20" t="s">
         <v>117</v>
@@ -2033,26 +1829,29 @@
       <c r="F20">
         <v>65</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="4">
         <v>35</v>
       </c>
-      <c r="H20" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L20" s="6" t="s">
+      <c r="H20" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="L20" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>17</v>
+      </c>
       <c r="B21" t="s">
         <v>4</v>
       </c>
@@ -2060,34 +1859,37 @@
         <v>166</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>117</v>
+        <v>164</v>
       </c>
       <c r="F21">
         <v>80</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="1">
         <v>20</v>
       </c>
-      <c r="H21" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="L21" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="H21" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>18</v>
+      </c>
       <c r="B22" t="s">
         <v>4</v>
       </c>
@@ -2095,34 +1897,37 @@
         <v>166</v>
       </c>
       <c r="D22" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>117</v>
+        <v>164</v>
       </c>
       <c r="F22">
         <v>75</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="4">
         <v>25</v>
       </c>
-      <c r="H22" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="H22" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>19</v>
+      </c>
       <c r="B23" t="s">
         <v>4</v>
       </c>
@@ -2130,34 +1935,37 @@
         <v>166</v>
       </c>
       <c r="D23" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>117</v>
+        <v>164</v>
       </c>
       <c r="F23">
         <v>70</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="1">
         <v>30</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="H23" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>20</v>
+      </c>
       <c r="B24" t="s">
         <v>4</v>
       </c>
@@ -2165,57 +1973,113 @@
         <v>166</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="E24" t="s">
-        <v>117</v>
+        <v>164</v>
       </c>
       <c r="F24">
         <v>65</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="4">
         <v>35</v>
       </c>
-      <c r="H24" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="H24" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>166</v>
+      </c>
+      <c r="D25" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" t="s">
+        <v>164</v>
+      </c>
+      <c r="F25">
+        <v>80</v>
+      </c>
+      <c r="G25" s="9">
+        <v>20</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
       <c r="C26" t="s">
         <v>166</v>
       </c>
-      <c r="G26" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L26" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" t="s">
+        <v>164</v>
+      </c>
+      <c r="F26">
+        <v>75</v>
+      </c>
+      <c r="G26" s="4">
+        <v>25</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>23</v>
+      </c>
       <c r="B27" t="s">
         <v>4</v>
       </c>
@@ -2223,34 +2087,37 @@
         <v>166</v>
       </c>
       <c r="D27" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="E27" t="s">
         <v>164</v>
       </c>
       <c r="F27">
-        <v>80</v>
-      </c>
-      <c r="G27" s="2">
-        <v>20</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="G27" s="1">
+        <v>30</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>24</v>
+      </c>
       <c r="B28" t="s">
         <v>4</v>
       </c>
@@ -2258,245 +2125,380 @@
         <v>166</v>
       </c>
       <c r="D28" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="E28" t="s">
         <v>164</v>
       </c>
       <c r="F28">
-        <v>75</v>
-      </c>
-      <c r="G28" s="5">
-        <v>25</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L28" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" t="s">
-        <v>166</v>
-      </c>
-      <c r="D29" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" t="s">
-        <v>164</v>
-      </c>
-      <c r="F29">
-        <v>70</v>
-      </c>
-      <c r="G29" s="2">
-        <v>30</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" t="s">
-        <v>166</v>
-      </c>
-      <c r="D30" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" t="s">
-        <v>164</v>
-      </c>
-      <c r="F30">
         <v>65</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G28" s="4">
         <v>35</v>
       </c>
-      <c r="H30" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L30" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" t="s">
-        <v>166</v>
-      </c>
-      <c r="D31" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" t="s">
-        <v>164</v>
-      </c>
-      <c r="F31">
-        <v>80</v>
-      </c>
-      <c r="G31" s="12">
-        <v>20</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="I31" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="J31" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="K31" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="L31" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" t="s">
-        <v>166</v>
-      </c>
-      <c r="D32" t="s">
-        <v>58</v>
-      </c>
-      <c r="E32" t="s">
-        <v>164</v>
-      </c>
-      <c r="F32">
-        <v>75</v>
-      </c>
-      <c r="G32" s="5">
-        <v>25</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L32" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" t="s">
-        <v>166</v>
-      </c>
-      <c r="D33" t="s">
-        <v>58</v>
-      </c>
-      <c r="E33" t="s">
-        <v>164</v>
-      </c>
-      <c r="F33">
-        <v>70</v>
-      </c>
-      <c r="G33" s="2">
-        <v>30</v>
-      </c>
-      <c r="H33" s="3" t="s">
+      <c r="H28" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="I28" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="J33" s="3" t="s">
+      <c r="J28" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="K33" s="4" t="s">
+      <c r="K28" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" t="s">
-        <v>166</v>
-      </c>
-      <c r="D34" t="s">
-        <v>58</v>
-      </c>
-      <c r="E34" t="s">
-        <v>164</v>
-      </c>
-      <c r="F34">
-        <v>65</v>
-      </c>
-      <c r="G34" s="5">
-        <v>35</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L34" s="6" t="s">
+      <c r="L28" s="5" t="s">
         <v>136</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B1B882C-B741-4DBB-9F5C-5538E5B7B021}">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="18.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I3" t="s">
+        <v>126</v>
+      </c>
+      <c r="J3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H4" t="s">
+        <v>133</v>
+      </c>
+      <c r="I4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G5" t="s">
+        <v>140</v>
+      </c>
+      <c r="H5" t="s">
+        <v>141</v>
+      </c>
+      <c r="I5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H6" t="s">
+        <v>148</v>
+      </c>
+      <c r="I6" t="s">
+        <v>149</v>
+      </c>
+      <c r="J6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H7" t="s">
+        <v>153</v>
+      </c>
+      <c r="I7" t="s">
+        <v>154</v>
+      </c>
+      <c r="J7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I8" t="s">
+        <v>158</v>
+      </c>
+      <c r="J8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F9" t="s">
+        <v>139</v>
+      </c>
+      <c r="G9" t="s">
+        <v>160</v>
+      </c>
+      <c r="H9" t="s">
+        <v>161</v>
+      </c>
+      <c r="I9" t="s">
+        <v>162</v>
+      </c>
+      <c r="J9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E10" t="s">
+        <v>145</v>
+      </c>
+      <c r="F10" t="s">
+        <v>146</v>
+      </c>
+      <c r="G10" t="s">
+        <v>160</v>
+      </c>
+      <c r="H10" t="s">
+        <v>161</v>
+      </c>
+      <c r="I10" t="s">
+        <v>162</v>
+      </c>
+      <c r="J10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -2504,7 +2506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F734EF5-A29B-4ED1-8EEC-FB3BDD945FCE}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:J10"/>
     </sheetView>
   </sheetViews>
@@ -2551,290 +2553,290 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>71</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s">
         <v>72</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" t="s">
         <v>74</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>78</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>79</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" t="s">
         <v>80</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" t="s">
         <v>81</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" t="s">
         <v>82</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>85</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>86</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
         <v>87</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" t="s">
         <v>88</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" t="s">
         <v>89</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" t="s">
         <v>90</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>93</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>94</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" t="s">
         <v>95</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" t="s">
         <v>96</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" t="s">
         <v>97</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" t="s">
         <v>98</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>70</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" t="s">
         <v>71</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" t="s">
         <v>101</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" t="s">
         <v>102</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" t="s">
         <v>103</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>77</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>78</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" t="s">
         <v>79</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" t="s">
         <v>105</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" t="s">
         <v>106</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" t="s">
         <v>107</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>85</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>86</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" t="s">
         <v>87</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" t="s">
         <v>109</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" t="s">
         <v>110</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" t="s">
         <v>111</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>94</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" t="s">
         <v>95</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" t="s">
         <v>113</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" t="s">
         <v>114</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" t="s">
         <v>115</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2850,7 +2852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4285E93A-A854-4380-BFD3-A4E5861A5C28}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:F6"/>
     </sheetView>
   </sheetViews>
@@ -2882,102 +2884,102 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3023,87 +3025,87 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>57</v>
       </c>
     </row>
